--- a/OLS Notes.xlsx
+++ b/OLS Notes.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0A9902-B493-4639-B068-489823B384E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F703689A-64AF-4762-B4D4-B8FDE17BF2F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A2BC0EF4-4E46-4147-B52D-B6502B511DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 01" sheetId="1" r:id="rId1"/>
     <sheet name="Environment" sheetId="3" r:id="rId2"/>
-    <sheet name="Documentation" sheetId="2" r:id="rId3"/>
+    <sheet name="Documentation 01" sheetId="2" r:id="rId3"/>
+    <sheet name="Documentation 02" sheetId="5" r:id="rId4"/>
+    <sheet name="CMDB Tips Tricks 01" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <r>
       <t>\OLS\Dsf.Olss\</t>
@@ -131,6 +133,42 @@
   </si>
   <si>
     <t>Aryo7890</t>
+  </si>
+  <si>
+    <t>CMDB Tips Tricks</t>
+  </si>
+  <si>
+    <t>AS14403A</t>
+  </si>
+  <si>
+    <t>Progresss</t>
+  </si>
+  <si>
+    <t>Primbon:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20220307</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MON</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -673,6 +711,169 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28143</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18DF3FF4-3164-4765-A33F-9F04B1587550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="952500"/>
+          <a:ext cx="3457143" cy="1523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>65762</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBC0E3A-F21A-486A-BD14-44C7297BE85A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="571500"/>
+          <a:ext cx="7304762" cy="942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152095</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD628B51-A5C7-4F83-8BD3-EA4DF4A2CD76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="1714500"/>
+          <a:ext cx="2438095" cy="1609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1019,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBEB116-AD68-42C9-BE70-1773A01541E8}">
-  <dimension ref="B2:D63"/>
+  <dimension ref="B2:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AV4" sqref="AV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,12 +1231,12 @@
     <col min="1" max="16384" width="2.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -1043,44 +1244,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
@@ -1142,7 +1346,7 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,4 +1374,67 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0784A6A-111F-4086-B286-40C0B502EBED}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9DE37-24AB-4A7F-8EAC-CD047B2490E4}">
+  <dimension ref="B2:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/OLS Notes.xlsx
+++ b/OLS Notes.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F703689A-64AF-4762-B4D4-B8FDE17BF2F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE9B111-4FAE-41F9-9109-C00038B821AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A2BC0EF4-4E46-4147-B52D-B6502B511DB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{A2BC0EF4-4E46-4147-B52D-B6502B511DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 01" sheetId="1" r:id="rId1"/>
     <sheet name="Environment" sheetId="3" r:id="rId2"/>
     <sheet name="Documentation 01" sheetId="2" r:id="rId3"/>
     <sheet name="Documentation 02" sheetId="5" r:id="rId4"/>
-    <sheet name="CMDB Tips Tricks 01" sheetId="4" r:id="rId5"/>
+    <sheet name="Documentation 03" sheetId="6" r:id="rId5"/>
+    <sheet name="CMDB Tips Tricks 01" sheetId="4" r:id="rId6"/>
+    <sheet name="Step 5" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="302">
   <si>
     <r>
       <t>\OLS\Dsf.Olss\</t>
@@ -168,6 +172,2763 @@
         <scheme val="minor"/>
       </rPr>
       <t>MON</t>
+    </r>
+  </si>
+  <si>
+    <t>Invoice Improvement</t>
+  </si>
+  <si>
+    <t>33. ROA</t>
+  </si>
+  <si>
+    <t>32. Average asset</t>
+  </si>
+  <si>
+    <t>31. Per year</t>
+  </si>
+  <si>
+    <t>30. Net Income DSF</t>
+  </si>
+  <si>
+    <t>VI. Profit</t>
+  </si>
+  <si>
+    <t>29. Subtotal</t>
+  </si>
+  <si>
+    <t>28. Replacement</t>
+  </si>
+  <si>
+    <t>27. Borrowing Cost for DP</t>
+  </si>
+  <si>
+    <t>26. Borrowing Cost</t>
+  </si>
+  <si>
+    <t>25. Maintenance</t>
+  </si>
+  <si>
+    <t>24. Registration</t>
+  </si>
+  <si>
+    <t>23. TOP (@Model.TermPaymentDays)</t>
+  </si>
+  <si>
+    <t>22. Demobilization</t>
+  </si>
+  <si>
+    <t>21. Mobilization</t>
+  </si>
+  <si>
+    <t>20. Unit Price</t>
+  </si>
+  <si>
+    <t>19. Insurance Expenses</t>
+  </si>
+  <si>
+    <t>18. Subtotal</t>
+  </si>
+  <si>
+    <t>17.  Discount KTB</t>
+  </si>
+  <si>
+    <t>16. Commission (@Decimal.Round(Model.RateInsuranceIncome, 0)%)</t>
+  </si>
+  <si>
+    <t>15. RV (Include VAT)</t>
+  </si>
+  <si>
+    <t>15. RV (Exclude VAT)</t>
+  </si>
+  <si>
+    <t>14. Installment Total</t>
+  </si>
+  <si>
+    <t>IV. Income</t>
+  </si>
+  <si>
+    <t>13.  　⇒Total</t>
+  </si>
+  <si>
+    <t>12. Include VAT</t>
+  </si>
+  <si>
+    <t>11.  　⇒Total</t>
+  </si>
+  <si>
+    <t>10. Exclude VAT</t>
+  </si>
+  <si>
+    <t>III. Installment</t>
+  </si>
+  <si>
+    <t>09. RV (Include VAT)</t>
+  </si>
+  <si>
+    <t>08. RV</t>
+  </si>
+  <si>
+    <t>07. Vehicle list price</t>
+  </si>
+  <si>
+    <t>II. RV</t>
+  </si>
+  <si>
+    <t>06. Spread</t>
+  </si>
+  <si>
+    <t>05. Borrowing Rate</t>
+  </si>
+  <si>
+    <t>04. Lending Rate</t>
+  </si>
+  <si>
+    <t>03. Leased Period</t>
+  </si>
+  <si>
+    <t>02. Unit Price (Exclude VAT)</t>
+  </si>
+  <si>
+    <t>01. Unit Price (Include VAT)</t>
+  </si>
+  <si>
+    <t>I. Contract</t>
+  </si>
+  <si>
+    <t>http://localhost:50729/Marketing/Operating-Lease-Cashflow/CalculationCashflow/Detail/383/5</t>
+  </si>
+  <si>
+    <t>vm.ProductPriceWithVAT = (oplCalc.OPLBasicCondition.ProductPriceTotal ?? 0) + (oplCalc.OPLBasicCondition.CarroserriePriceTotal ?? 0) + (oplCalc.OPLBasicCondition.AccesoriesPriceTotal ?? 0);</t>
+  </si>
+  <si>
+    <t>vm.ProductPriceWithoutVAT = (oplCalc.OPLBasicCondition.ProductPriceTotal ?? 0) + (oplCalc.OPLBasicCondition.CarroserriePriceTotal ?? 0) + (oplCalc.OPLBasicCondition.AccesoriesPriceTotal ?? 0) - (oplCalc.CRVATInUnit ?? 0) - (oplCalc.CRVATInAccessories ?? 0) - (oplCalc.CRVATInCarroserries ?? 0);</t>
+  </si>
+  <si>
+    <t>vm.LeasePeriodPlan = oplCalc.LeasePeriodPlan ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.PrimeEffectivePercent = oplCalc.OPLFinanceCondition.PrimeEffectivePercent ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.BorrowingEffectivePercent = oplCalc.OPLFinanceCondition.BorrowingEffectivePercent ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.SpreadEffectivePercent = oplCalc.OPLFinanceCondition.SpreadEffectivePercent ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.VehicleListPrice = (oplCalc.OPLBasicCondition.ProductPrice ?? 0 + oplCalc.CRVATInUnit ?? 0) + (oplCalc.OPLBasicCondition.CarroserriePrice ?? 0 + oplCalc.CRVATInCarroserries ?? 0);</t>
+  </si>
+  <si>
+    <t>vm.ResidualValuePercent = oplCalc.OPLBasicCondition.ResidualValuePercent ?? 0;</t>
+  </si>
+  <si>
+    <t>if (vm.IsNewCalculation)</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>vm.ResidualValuePercent = vm.ResidualValueAmountWithVAT / vm.ProductPriceWithoutVAT * 100;</t>
+  </si>
+  <si>
+    <t>vm.ResidualValueAmountWithVAT = (oplCalc.OPLBasicCondition.ResidualValueAmount ?? 0);</t>
+  </si>
+  <si>
+    <t>vm.MonthlyInstallmentWithoutVatTax = Math.Ceiling(oplCalc.MonthlyInstallmentAmount ?? 0);</t>
+  </si>
+  <si>
+    <t>vm.TotalInstallmentWithoutVatTax = vm.MonthlyInstallmentWithoutVatTax * vm.LeasePeriodPlan;</t>
+  </si>
+  <si>
+    <t>vm.MonthlyInstallmentWithVatTax = vm.MonthlyInstallmentWithoutVatTax * 110 / 100;</t>
+  </si>
+  <si>
+    <t>vm.TotalInstallmentWithVatTax = vm.MonthlyInstallmentWithVatTax * vm.LeasePeriodPlan;</t>
+  </si>
+  <si>
+    <t>@if(Model.IsNewCalculation)</t>
+  </si>
+  <si>
+    <t>vm.ResidualValueAmountWithoutVAT = vm.ResidualValueAmountWithVAT * 100 / 110;</t>
+  </si>
+  <si>
+    <t>vm.ResidualValueAmountWithoutVAT = vm.ResidualValueAmountWithVAT;</t>
+  </si>
+  <si>
+    <t>if (oplCalc.OPLInsuranceCondition != null)</t>
+  </si>
+  <si>
+    <t>vm.RateInsuranceIncome = oplCalc.OPLInsuranceCondition.CommissionRate ?? 0;</t>
+  </si>
+  <si>
+    <t>InsuranceDiscount = oplCalc.InsuranceCommisionAmount ?? 0;</t>
+  </si>
+  <si>
+    <t>if (oplCalc.OPLBasicCondition != null)</t>
+  </si>
+  <si>
+    <t>vm.DiscountKtb = oplCalc.OPLBasicCondition.ATPMDiscount ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.SubTotalIncomeWithVatTax = vm.ResidualValueAmountWithoutVAT + vm.InsuranceDiscount + vm.TotalInstallmentWithoutVatTax + vm.DiscountKtb;</t>
+  </si>
+  <si>
+    <t>vm.InsuranceCost = oplCalc.OPLInsuranceCondition.TotalGrossPremium ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.MobilizationCost = oplCalc.TotalMobilizationFeeAmount ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.DemobilizationCost = oplCalc.TotalDemobilizationFeeAmount ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.InterestCostTOP = oplCalc.InterestCostTop ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.TermPaymentDays = oplCalc.OPLFinanceCondition.TermPaymentDays ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.STNKKEURRenewalCost = oplCalc.OPLFinanceCondition.RegistrationValueAmount ?? 0;</t>
+  </si>
+  <si>
+    <t>if (oplCalc.OPLFinanceCondition != null)</t>
+  </si>
+  <si>
+    <t>vm.MaintenanceCost = oplCalc.SumMaintenanceCost ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.InterestCostWithVatTax = oplCalc.IsNewCalculation == true ? (oplCalc.InterestExpense ?? 0) + (oplCalc.InterestExpenseVAT ?? 0) + (oplCalc.InterestExpenseTAX ?? 0) : (oplCalc.InterestExpense ?? 0);</t>
+  </si>
+  <si>
+    <t>vm.InterestCostBAST = (decimal)oplCalc.InterestExpenseBAST;</t>
+  </si>
+  <si>
+    <t>vm.ReplacementUnitCost = oplCalc.OPLFinanceCondition.ReplacementCarAmount ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.SubTotalExpensesWithVatTax = vm.SubTotalExpenses + (oplCalc.InterestExpenseVAT ?? 0) + (oplCalc.InterestExpenseTAX ?? 0);</t>
+  </si>
+  <si>
+    <t>vm.NetIncomeWithVatTax = Math.Round(vm.SubTotalIncomeWithVatTax) - Math.Round(vm.SubTotalExpensesWithVatTax);</t>
+  </si>
+  <si>
+    <t>vm.NetIncomeWithVatTaxPerYear = vm.NetIncomeWithVatTax / vm.LeasePeriodPlan * 12;</t>
+  </si>
+  <si>
+    <t>vm.AverageAsset = ((vm.VehicleListPrice - vm.ResidualValueAmountWithVAT) / 2) + vm.ResidualValueAmountWithVAT;</t>
+  </si>
+  <si>
+    <t>vm.ROA = (vm.NetIncomeWithVatTaxPerYear / vm.AverageAsset) * 100;</t>
+  </si>
+  <si>
+    <t>OPLBasicCondition.ProductPriceTotal</t>
+  </si>
+  <si>
+    <t>OPLBasicCondition.CarroserriePriceTotal</t>
+  </si>
+  <si>
+    <t>OPLBasicCondition.AccesoriesPriceTotal</t>
+  </si>
+  <si>
+    <t>oplCalc.OPLBasicCondition.ProductPriceTotal</t>
+  </si>
+  <si>
+    <t>oplCalc.OPLBasicCondition.CarroserriePriceTotal</t>
+  </si>
+  <si>
+    <t>oplCalc.OPLBasicCondition.AccesoriesPriceTotal</t>
+  </si>
+  <si>
+    <t>oplCalc.CRVATInUnit</t>
+  </si>
+  <si>
+    <t>oplCalc.CRVATInAccessories</t>
+  </si>
+  <si>
+    <t>oplCalc.CRVATInCarroserries</t>
+  </si>
+  <si>
+    <t>OPLCalculation.CRVATInUnit</t>
+  </si>
+  <si>
+    <t>OPLCalculation.CRVATInAccessories</t>
+  </si>
+  <si>
+    <t>OPLCalculation.CRVATInCarroserries</t>
+  </si>
+  <si>
+    <t>OPLCalculation.LeasePeriodPlan</t>
+  </si>
+  <si>
+    <t>oplCalc.LeasePeriodPlan</t>
+  </si>
+  <si>
+    <t>oplCalc.OPLFinanceCondition.PrimeEffectivePercent</t>
+  </si>
+  <si>
+    <t>OPLFinanceCondition.PrimeEffectivePercent</t>
+  </si>
+  <si>
+    <t>oplCalc.OPLFinanceCondition.BorrowingEffectivePercent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLBasicCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProductPriceTotal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLBasicCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CarroserriePriceTotal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLBasicCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AccesoriesPriceTotal</t>
+    </r>
+  </si>
+  <si>
+    <t>oplCalc.OPLFinanceCondition.SpreadEffectivePercent</t>
+  </si>
+  <si>
+    <t>OPLFinanceCondition.BorrowingEffectivePercent</t>
+  </si>
+  <si>
+    <t>OPLFinanceCondition.SpreadEffectivePercent</t>
+  </si>
+  <si>
+    <t>oplCalc.OPLBasicCondition.ProductPrice</t>
+  </si>
+  <si>
+    <t>oplCalc.OPLBasicCondition.CarroserriePrice</t>
+  </si>
+  <si>
+    <t>oplCalc.OPLBasicCondition.ResidualValuePercent</t>
+  </si>
+  <si>
+    <t>OPLBasicCondition.ProductPrice</t>
+  </si>
+  <si>
+    <t>OPLBasicCondition.CarroserriePrice</t>
+  </si>
+  <si>
+    <t>OPLBasicCondition.ResidualValuePercent</t>
+  </si>
+  <si>
+    <t>vm.ResidualValueAmountWithVAT</t>
+  </si>
+  <si>
+    <t>vm.ProductPriceWithoutVAT</t>
+  </si>
+  <si>
+    <t>oplCalc.OPLBasicCondition.ResidualValueAmount</t>
+  </si>
+  <si>
+    <t>OPLBasicCondition.ResidualValueAmount</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+  </si>
+  <si>
+    <t>oplCalc.MonthlyInstallmentAmount</t>
+  </si>
+  <si>
+    <t>OPLCalculation.MonthlyInstallmentAmount</t>
+  </si>
+  <si>
+    <t>vm.MonthlyInstallmentWithoutVatTax</t>
+  </si>
+  <si>
+    <t>vm.LeasePeriodPlan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03</t>
+    </r>
+  </si>
+  <si>
+    <t>vm.MonthlyInstallmentWithVatTax</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <t>vm.IsNewCalculation</t>
+  </si>
+  <si>
+    <t>OPLCalculation.IsNewCalculation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.IsNewCalculation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.CRVATInUnit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.CRVATInCarroserries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLFinanceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.PrimeEffectivePercent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLFinanceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.BorrowingEffectivePercent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLFinanceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.SpreadEffectivePercent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLBasicCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.ProductPrice</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLBasicCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.CarroserriePrice</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRVATInUnit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRVATInAccessories</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRVATInCarroserries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LeasePeriodPlan</t>
+    </r>
+  </si>
+  <si>
+    <t>select top 10 *</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">join </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OPLBasicCondition</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">left join </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OPLFinanceCondition</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IdOPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OPLBasicCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IdOPLCalculation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IdOPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OPLFinanceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IdOPLCalculation</t>
+    </r>
+  </si>
+  <si>
+    <t>oplCalc.OPLInsuranceCondition.CommissionRate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">left join </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OPLInsuranceCondition</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IdOPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OPLInsuranceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IdOPLCalculation</t>
+    </r>
+  </si>
+  <si>
+    <t>OPLInsuranceCondition.CommissionRate</t>
+  </si>
+  <si>
+    <t>oplCalc.InsuranceCommisionAmount</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLBasicCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.ResidualValuePercent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLBasicCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.ResidualValueAmount</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.MonthlyInstallmentAmount</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLInsuranceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.CommissionRate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oplCalc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.InsuranceCommisionAmount</t>
+    </r>
+  </si>
+  <si>
+    <t>oplCalc.OPLBasicCondition.ATPMDiscount</t>
+  </si>
+  <si>
+    <t>OPLBasicCondition.ATPMDiscount</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLBasicCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.ATPMDiscount</t>
+    </r>
+  </si>
+  <si>
+    <t>vm.ResidualValueAmountWithoutVAT</t>
+  </si>
+  <si>
+    <t>vm.InsuranceDiscount</t>
+  </si>
+  <si>
+    <t>vm.TotalInstallmentWithoutVatTax</t>
+  </si>
+  <si>
+    <t>vm.DiscountKtb</t>
+  </si>
+  <si>
+    <t>OPLCalculation.InsuranceCommisionAmount</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.InsuranceCommisionAmount</t>
+    </r>
+  </si>
+  <si>
+    <t>oplCalc.OPLInsuranceCondition.TotalGrossPremium</t>
+  </si>
+  <si>
+    <t>OPLInsuranceCondition.TotalGrossPremium</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLInsuranceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.TotalGrossPremium</t>
+    </r>
+  </si>
+  <si>
+    <t>oplCalc.TotalMobilizationFeeAmount</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oplCalc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.TotalMobilizationFeeAmount</t>
+    </r>
+  </si>
+  <si>
+    <t>oplCalc.TotalDemobilizationFeeAmount</t>
+  </si>
+  <si>
+    <t>OPLCalculation.TotalDemobilizationFeeAmount</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.TotalDemobilizationFeeAmount</t>
+    </r>
+  </si>
+  <si>
+    <t>oplCalc.OPLFinanceCondition.TermPaymentDays</t>
+  </si>
+  <si>
+    <t>OPLFinanceCondition.TermPaymentDays</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLFinanceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.TermPaymentDays</t>
+    </r>
+  </si>
+  <si>
+    <t>oplCalc.InterestCostTop</t>
+  </si>
+  <si>
+    <t>OPLCalculation.InterestCostTop</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.InterestCostTop</t>
+    </r>
+  </si>
+  <si>
+    <t>oplCalc.OPLFinanceCondition.RegistrationValueAmount</t>
+  </si>
+  <si>
+    <t>OPLFinanceCondition.RegistrationValueAmount</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLFinanceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.RegistrationValueAmount</t>
+    </r>
+  </si>
+  <si>
+    <t>oplCalc.SumMaintenanceCost</t>
+  </si>
+  <si>
+    <t>OPLCalculation.SumMaintenanceCost</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.SumMaintenanceCost</t>
+    </r>
+  </si>
+  <si>
+    <t>oplCalc.IsNewCalculation</t>
+  </si>
+  <si>
+    <t>oplCalc.InterestExpenseVAT</t>
+  </si>
+  <si>
+    <t>oplCalc.InterestExpenseTAX</t>
+  </si>
+  <si>
+    <t>oplCalc.InterestExpense</t>
+  </si>
+  <si>
+    <t>OPLCalculation.InterestExpense</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.InterestExpense</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.InterestExpenseVAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.InterestExpenseTAX</t>
+    </r>
+  </si>
+  <si>
+    <t>oplCalc.InterestExpenseBAST</t>
+  </si>
+  <si>
+    <t>OPLCalculation.InterestExpenseBAST</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.InterestExpenseBAST</t>
+    </r>
+  </si>
+  <si>
+    <t>oplCalc.OPLFinanceCondition.ReplacementCarAmount</t>
+  </si>
+  <si>
+    <t>OPLFinanceCondition.ReplacementCarAmount</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLFinanceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.ReplacementCarAmount</t>
+    </r>
+  </si>
+  <si>
+    <t>vm.SubTotalExpenses = vm.InsuranceCost + vm.ProductPriceWithoutVAT + vm.MobilizationCost + vm.DemobilizationCost + vm.InterestCostTOP + vm.STNKKEURRenewalCost + vm.MaintenanceCost + vm.InterestCost + vm.ReplacementUnitCost + vm.InterestCostBAST;</t>
+  </si>
+  <si>
+    <t>vm.InsuranceCost</t>
+  </si>
+  <si>
+    <t>vm.MobilizationCost</t>
+  </si>
+  <si>
+    <t>vm.DemobilizationCost</t>
+  </si>
+  <si>
+    <t>vm.InterestCostTOP</t>
+  </si>
+  <si>
+    <t>vm.STNKKEURRenewalCost</t>
+  </si>
+  <si>
+    <t>vm.MaintenanceCost</t>
+  </si>
+  <si>
+    <t>vm.ReplacementUnitCost</t>
+  </si>
+  <si>
+    <t>vm.InterestCostBAST</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+  </si>
+  <si>
+    <t>vm.InterestCost = oplCalc.InterestExpense ?? 0;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28</t>
+    </r>
+  </si>
+  <si>
+    <t>OPLCalculation.InterestExpenseVAT</t>
+  </si>
+  <si>
+    <t>vm.SubTotalIncomeWithVatTax</t>
+  </si>
+  <si>
+    <t>vm.SubTotalExpensesWithVatTax</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29</t>
+    </r>
+  </si>
+  <si>
+    <t>vm.NetIncomeWithVatTax</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <t>vm.VehicleListPrice</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>07</t>
+    </r>
+  </si>
+  <si>
+    <t>vm.NetIncomeWithVatTaxPerYear</t>
+  </si>
+  <si>
+    <t>vm.AverageAsset</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32</t>
+    </r>
+  </si>
+  <si>
+    <t>vm.ProductPriceWithVAT</t>
+  </si>
+  <si>
+    <t>(oplCalc.OPLBasicCondition.ProductPriceTotal ?? 0) + (oplCalc.OPLBasicCondition.CarroserriePriceTotal ?? 0) + (oplCalc.OPLBasicCondition.AccesoriesPriceTotal ?? 0);</t>
+  </si>
+  <si>
+    <t>(oplCalc.OPLBasicCondition.ProductPriceTotal ?? 0) + (oplCalc.OPLBasicCondition.CarroserriePriceTotal ?? 0) + (oplCalc.OPLBasicCondition.AccesoriesPriceTotal ?? 0) - (oplCalc.CRVATInUnit ?? 0) - (oplCalc.CRVATInAccessories ?? 0) - (oplCalc.CRVATInCarroserries ?? 0);</t>
+  </si>
+  <si>
+    <t>oplCalc.LeasePeriodPlan ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.PrimeEffectivePercent</t>
+  </si>
+  <si>
+    <t>oplCalc.OPLFinanceCondition.PrimeEffectivePercent ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.BorrowingEffectivePercent</t>
+  </si>
+  <si>
+    <t>oplCalc.OPLFinanceCondition.BorrowingEffectivePercent ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.SpreadEffectivePercent</t>
+  </si>
+  <si>
+    <t>oplCalc.OPLFinanceCondition.SpreadEffectivePercent ?? 0;</t>
+  </si>
+  <si>
+    <t>(oplCalc.OPLBasicCondition.ProductPrice ?? 0 + oplCalc.CRVATInUnit ?? 0) + (oplCalc.OPLBasicCondition.CarroserriePrice ?? 0 + oplCalc.CRVATInCarroserries ?? 0);</t>
+  </si>
+  <si>
+    <t>vm.ResidualValuePercent</t>
+  </si>
+  <si>
+    <t>oplCalc.OPLBasicCondition.ResidualValuePercent ?? 0;</t>
+  </si>
+  <si>
+    <t>vm.ResidualValueAmountWithVAT / vm.ProductPriceWithoutVAT * 100;</t>
+  </si>
+  <si>
+    <t>(oplCalc.OPLBasicCondition.ResidualValueAmount ?? 0);</t>
+  </si>
+  <si>
+    <t>Math.Ceiling(oplCalc.MonthlyInstallmentAmount ?? 0);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLFinanceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PrimeEffectivePercent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLFinanceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BorrowingEffectivePercent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLFinanceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SpreadEffectivePercent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLBasicCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProductPrice</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLBasicCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CarroserriePrice</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLBasicCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ResidualValuePercent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLBasicCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ResidualValueAmount</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MonthlyInstallmentAmount</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLInsuranceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CommissionRate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLBasicCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ATPMDiscount</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IsNewCalculation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InsuranceCommisionAmount</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TotalDemobilizationFeeAmount</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLFinanceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TermPaymentDays</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InterestCostTop</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLFinanceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RegistrationValueAmount</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SumMaintenanceCost</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InterestExpense</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InterestExpenseVAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InterestExpenseTAX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InterestExpenseBAST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLFinanceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ReplacementCarAmount</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLInsuranceCondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TotalGrossPremium</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TotalMobilizationFeeAmount</t>
+    </r>
+  </si>
+  <si>
+    <t>OPLCalculation.InterestExpenseTAX</t>
+  </si>
+  <si>
+    <t>OPLCalculation.TotalMobilizationFeeAmount</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>User/Password OLS Web App Production</t>
+  </si>
+  <si>
+    <t>OLS.MONITORING</t>
+  </si>
+  <si>
+    <t>Dsfjho.2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OPLCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OPLCalculationNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>00701/OCN/01/12/2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>';</t>
     </r>
   </si>
 </sst>
@@ -175,7 +2936,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +2983,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -249,7 +3036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -265,6 +3052,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,13 +3348,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>28095</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>18786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -637,6 +3431,57 @@
         <a:xfrm>
           <a:off x="762000" y="2476500"/>
           <a:ext cx="6333333" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>56786</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D6E622-3CF1-407F-B645-23EDDEC2684B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="7810500"/>
+          <a:ext cx="2914286" cy="1466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -773,6 +3618,62 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>56690</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>37881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27ED031-80BD-45BD-A471-25E327984348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="952500"/>
+          <a:ext cx="3676190" cy="1752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -871,6 +3772,57 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="13009524" cy="22323809"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6694BBDF-0339-4627-BD57-BA6B1E7B3C66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="571500"/>
+          <a:ext cx="13009524" cy="22323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1173,7 +4125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE77003-CFC8-4071-961F-EA0F6B63B190}">
   <dimension ref="B2:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1220,10 +4172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBEB116-AD68-42C9-BE70-1773A01541E8}">
-  <dimension ref="B2:I63"/>
+  <dimension ref="B2:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AV4" sqref="AV4"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,46 +4244,61 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="5">
+    <row r="40" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="V44" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="V45" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="5">
         <v>0</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="1" t="s">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="3" t="s">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="1" t="s">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="4" t="s">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61" s="1" t="s">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="4" t="s">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D63" s="4" t="s">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1406,11 +4373,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A8A09A-7A2E-4E3F-A1DB-E7F1DC4ED15C}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9DE37-24AB-4A7F-8EAC-CD047B2490E4}">
   <dimension ref="B2:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,4 +4431,2730 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9614F39-882D-4078-A1A4-168F0A949DE3}">
+  <dimension ref="B2:AW268"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="AB232" sqref="AB232"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C129" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C130" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C133" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="134" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D134" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA134" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB135" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW135" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB136" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW136" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB137" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW137" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D138" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA138" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB139" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW139" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="140" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB140" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW140" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB141" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW141" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="142" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB142" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW142" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB143" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW143" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB144" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW144" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D145" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA145" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB146" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW146" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D147" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA147" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB148" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW148" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="149" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D149" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA149" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB150" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW150" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D151" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA151" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="152" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB152" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW152" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="153" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C153" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="154" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D154" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA154" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="155" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB155" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW155" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="156" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB156" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW156" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB157" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW157" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="158" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB158" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW158" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D159" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA159" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB160" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="161" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC161" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW161" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="162" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AA162" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB163" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC164" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW164" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="165" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC165" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW165" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="166" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D166" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA166" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="167" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C167" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB167" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW167" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="168" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D168" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA168" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="169" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB169" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW169" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="170" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D170" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA170" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="171" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB171" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW171" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="172" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB172" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW172" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="173" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D173" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA173" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="174" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB174" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW174" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D175" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA175" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="176" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB176" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW176" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="177" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB177" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW177" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="178" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C178" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="179" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D179" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA179" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="180" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB180" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW180" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB181" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW181" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="182" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D182" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA182" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="183" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB183" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW183" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="184" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="E184" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB184" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="185" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC185" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW185" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="186" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D186" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA186" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="187" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="E187" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB187" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="188" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC188" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW188" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="189" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D189" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA189" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB190" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="191" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC191" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AW191" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="192" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB192" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="193" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AC193" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW193" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="194" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D194" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA194" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="195" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB195" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AC196" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AW196" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="197" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D197" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA197" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="198" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB198" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW198" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="199" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AC199" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW199" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB200" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="201" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AC201" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW201" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="202" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB202" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW202" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="203" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB203" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="204" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AC204" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW204" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="205" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D205" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA205" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="206" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB206" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="207" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AC207" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW207" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="208" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D208" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA208" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="209" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB209" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW209" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="210" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB210" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW210" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="211" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB211" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW211" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="212" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB212" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW212" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="213" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB213" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW213" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="214" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB214" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW214" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="215" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D215" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA215" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="216" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB216" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW216" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="217" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D217" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA217" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="218" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB218" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW218" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="219" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D219" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA219" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB220" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW220" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="221" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AA221" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="222" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB222" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW222" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="223" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D223" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA223" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="224" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB224" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="225" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC225" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW225" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="226" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D226" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA226" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="227" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB227" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW227" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="228" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D228" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA228" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="229" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB229" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW229" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="230" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB230" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW230" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="231" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB231" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AW231" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="232" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB232" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW232" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="233" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D233" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA233" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="234" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB234" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AW234" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="235" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D235" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA235" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="236" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB236" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW236" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="237" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D237" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA237" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="238" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C238" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB238" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="239" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC239" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="240" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AD240" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="241" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AE241" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW241" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="242" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC242" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="244" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC244" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AW244" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="245" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC245" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AW245" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="246" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC246" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="247" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AD247" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW247" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="248" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC248" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="249" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AD249" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW249" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="250" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC250" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AW250" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC251" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AD252" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW252" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="253" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC253" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW253" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="254" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC254" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW254" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="255" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AB255" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AW255" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="256" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AB256" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW256" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="257" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D257" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA257" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="258" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB258" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AW258" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="259" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB259" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AW259" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="260" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D260" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA260" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="261" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB261" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AW261" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="262" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB262" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW262" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="263" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D263" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA263" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="264" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB264" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW264" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="265" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB265" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW265" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="266" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D266" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA266" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="267" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB267" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW267" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="268" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB268" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AW268" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C4C10F-54ED-4AEE-901C-909E3DFD30D9}">
+  <dimension ref="B2:C65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="1"/>
+    <col min="2" max="2" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>B2 &amp; " as [" &amp; B2 &amp; "],"</f>
+        <v>OPLBasicCondition.AccesoriesPriceTotal as [OPLBasicCondition.AccesoriesPriceTotal],</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C32" si="0">B3 &amp; " as [" &amp; B3 &amp; "],"</f>
+        <v>OPLBasicCondition.ATPMDiscount as [OPLBasicCondition.ATPMDiscount],</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLBasicCondition.CarroserriePrice as [OPLBasicCondition.CarroserriePrice],</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLBasicCondition.CarroserriePriceTotal as [OPLBasicCondition.CarroserriePriceTotal],</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLBasicCondition.ProductPrice as [OPLBasicCondition.ProductPrice],</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLBasicCondition.ProductPriceTotal as [OPLBasicCondition.ProductPriceTotal],</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLBasicCondition.ResidualValueAmount as [OPLBasicCondition.ResidualValueAmount],</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLBasicCondition.ResidualValuePercent as [OPLBasicCondition.ResidualValuePercent],</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.CRVATInAccessories as [OPLCalculation.CRVATInAccessories],</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.CRVATInCarroserries as [OPLCalculation.CRVATInCarroserries],</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.CRVATInUnit as [OPLCalculation.CRVATInUnit],</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.InsuranceCommisionAmount as [OPLCalculation.InsuranceCommisionAmount],</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.InterestCostTop as [OPLCalculation.InterestCostTop],</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.InterestExpense as [OPLCalculation.InterestExpense],</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.InterestExpenseBAST as [OPLCalculation.InterestExpenseBAST],</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.InterestExpenseTAX as [OPLCalculation.InterestExpenseTAX],</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.InterestExpenseVAT as [OPLCalculation.InterestExpenseVAT],</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.IsNewCalculation as [OPLCalculation.IsNewCalculation],</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.LeasePeriodPlan as [OPLCalculation.LeasePeriodPlan],</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.MonthlyInstallmentAmount as [OPLCalculation.MonthlyInstallmentAmount],</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.SumMaintenanceCost as [OPLCalculation.SumMaintenanceCost],</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.TotalDemobilizationFeeAmount as [OPLCalculation.TotalDemobilizationFeeAmount],</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.TotalMobilizationFeeAmount as [OPLCalculation.TotalMobilizationFeeAmount],</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLFinanceCondition.BorrowingEffectivePercent as [OPLFinanceCondition.BorrowingEffectivePercent],</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLFinanceCondition.PrimeEffectivePercent as [OPLFinanceCondition.PrimeEffectivePercent],</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLFinanceCondition.RegistrationValueAmount as [OPLFinanceCondition.RegistrationValueAmount],</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLFinanceCondition.ReplacementCarAmount as [OPLFinanceCondition.ReplacementCarAmount],</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLFinanceCondition.SpreadEffectivePercent as [OPLFinanceCondition.SpreadEffectivePercent],</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLFinanceCondition.TermPaymentDays as [OPLFinanceCondition.TermPaymentDays],</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLInsuranceCondition.CommissionRate as [OPLInsuranceCondition.CommissionRate],</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLInsuranceCondition.TotalGrossPremium as [OPLInsuranceCondition.TotalGrossPremium],</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="8">
+        <v>11764705</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="8">
+        <v>259570000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="8">
+        <v>259570000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="8">
+        <v>222890979</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="8">
+        <v>85.87</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="8">
+        <v>20733636</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1293697</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="8">
+        <v>27309376</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C50" s="8">
+        <v>11530</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1857519</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="8">
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="8">
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="8">
+        <v>11.500500000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="8">
+        <v>8362000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" s="8">
+        <v>8306240</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="8">
+        <v>5.0004999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B108">
+    <sortCondition ref="B2:B108"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE91207-CC6B-4672-B70D-ED06DFF38CBA}">
+  <dimension ref="B2:AA138"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.85546875" style="1"/>
+    <col min="3" max="3" width="64.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA57" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F59" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F61" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA62" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F64" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA65" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA67" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G68" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F69" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G70" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F71" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA71" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F72" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G73" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA73" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F75" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA78" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA79" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F80" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA80" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F81" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA81" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA82" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA83" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA85" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F87" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA87" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA89" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F91" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F93" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G94" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA94" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F96" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA96" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA98" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F99" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA99" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F100" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA100" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F101" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA101" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F102" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA102" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F104" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA104" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA106" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="G109" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H110" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="I111" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA111" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="G112" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G114" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA114" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G115" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA115" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G116" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H117" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA117" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G118" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H119" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA119" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G120" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA120" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G121" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H122" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA122" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G123" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA123" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G124" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA124" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F125" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA125" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="126" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F126" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA126" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C127" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F128" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA128" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F129" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA129" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F131" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA131" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="132" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F132" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA132" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="133" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C133" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F134" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA134" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="135" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F135" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA135" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F137" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA137" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="138" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F138" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA138" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OLS Notes.xlsx
+++ b/OLS Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE9B111-4FAE-41F9-9109-C00038B821AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CBD969-0F3D-48C9-BD6B-E6A56B2F44AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{A2BC0EF4-4E46-4147-B52D-B6502B511DB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5" xr2:uid="{A2BC0EF4-4E46-4147-B52D-B6502B511DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 01" sheetId="1" r:id="rId1"/>
@@ -4403,7 +4403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9DE37-24AB-4A7F-8EAC-CD047B2490E4}">
   <dimension ref="B2:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
@@ -4437,7 +4437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9614F39-882D-4078-A1A4-168F0A949DE3}">
   <dimension ref="B2:AW268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+    <sheetView topLeftCell="A214" workbookViewId="0">
       <selection activeCell="AB232" sqref="AB232"/>
     </sheetView>
   </sheetViews>

--- a/OLS Notes.xlsx
+++ b/OLS Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CBD969-0F3D-48C9-BD6B-E6A56B2F44AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87322BA2-305B-42B0-ACE8-1D23BF65630B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5" xr2:uid="{A2BC0EF4-4E46-4147-B52D-B6502B511DB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{A2BC0EF4-4E46-4147-B52D-B6502B511DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 01" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,13 @@
     <sheet name="Documentation 01" sheetId="2" r:id="rId3"/>
     <sheet name="Documentation 02" sheetId="5" r:id="rId4"/>
     <sheet name="Documentation 03" sheetId="6" r:id="rId5"/>
-    <sheet name="CMDB Tips Tricks 01" sheetId="4" r:id="rId6"/>
-    <sheet name="Step 5" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
+    <sheet name="Documentation 04" sheetId="12" r:id="rId6"/>
+    <sheet name="CMDB Tips Tricks 01" sheetId="4" r:id="rId7"/>
+    <sheet name="Step 5" sheetId="8" r:id="rId8"/>
+    <sheet name="Step 5a" sheetId="7" r:id="rId9"/>
+    <sheet name="Step 5b" sheetId="9" r:id="rId10"/>
+    <sheet name="Visit Customer Survey" sheetId="10" r:id="rId11"/>
+    <sheet name="Complement Document" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="307">
   <si>
     <r>
       <t>\OLS\Dsf.Olss\</t>
@@ -2930,6 +2933,21 @@
       </rPr>
       <t>';</t>
     </r>
+  </si>
+  <si>
+    <t>Info dari Pak Denur:</t>
+  </si>
+  <si>
+    <t>Info dari Pak Wawan DSF:</t>
+  </si>
+  <si>
+    <t>Complement Document</t>
+  </si>
+  <si>
+    <t>Visit Customer Survey</t>
+  </si>
+  <si>
+    <t>Step Migrasi MFAPPL - OLSS</t>
   </si>
 </sst>
 </file>
@@ -3342,6 +3360,368 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>132428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF9D0F7-1180-44CA-A091-79DC948CA714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="571500"/>
+          <a:ext cx="13009524" cy="7371428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>189786</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>66071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C9DD14-F934-4813-9679-0CD82612D549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="8191500"/>
+          <a:ext cx="5714286" cy="4828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>157476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13F3DFD-791A-4AA6-AD6F-F129226E36D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="13335000"/>
+          <a:ext cx="13009524" cy="35590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>189786</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>47024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA8E1DF-937A-4F57-9802-E581099E23CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="49149000"/>
+          <a:ext cx="5714286" cy="4809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>151762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A444B41-9D20-4843-9A76-18090766DF80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="54292500"/>
+          <a:ext cx="13009524" cy="5104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>17424</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>113662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770A5239-7888-4D22-B296-F0AAFD7A8512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="54444900"/>
+          <a:ext cx="13009524" cy="5104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>151686</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>8924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47593B0B-BFFF-45D2-B722-8917FFD7F797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="49301400"/>
+          <a:ext cx="5714286" cy="4809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3495,6 +3875,247 @@
         </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>94762</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>151738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDE21E2-70E4-40C8-BF3B-479CDE6E2869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="14859000"/>
+          <a:ext cx="3904762" cy="5295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>94762</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>151738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5346B2C-3389-49D6-8DD5-42672B43B68F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="14859000"/>
+          <a:ext cx="3904762" cy="5295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>85167</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>171238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BDF9D4-725A-4198-A4B3-A0A19627EC37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="20764500"/>
+          <a:ext cx="4466667" cy="1695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Arrow: Right 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E6CD66-525C-432B-A7A7-62212F4EAE5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2952750" y="19792951"/>
+          <a:ext cx="1000126" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 51258"/>
+            <a:gd name="adj2" fmla="val 56797"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="bg1">
+                <a:alpha val="23000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0000FF">
+                <a:alpha val="45000"/>
+              </a:srgbClr>
+            </a:gs>
+            <a:gs pos="25000">
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+                <a:alpha val="45000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="95250">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3674,6 +4295,62 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>65881</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A6D1DC-3118-4113-A9A1-92B4CC7C3B27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="762000"/>
+          <a:ext cx="6352381" cy="1380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -3775,7 +4452,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3823,6 +4500,113 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>6809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AB5E0B-233B-45AB-9E57-260CD07D17AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="571500"/>
+          <a:ext cx="13009524" cy="21723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>120</xdr:col>
+      <xdr:colOff>101952</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>94143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AA8DB2-BB3D-4A4A-9744-A8EFEA511DD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="571500"/>
+          <a:ext cx="22580952" cy="8857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4125,7 +4909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE77003-CFC8-4071-961F-EA0F6B63B190}">
   <dimension ref="B2:B58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4170,12 +4954,1136 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE91207-CC6B-4672-B70D-ED06DFF38CBA}">
+  <dimension ref="B2:AA138"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.85546875" style="1"/>
+    <col min="3" max="3" width="64.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA57" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F59" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F61" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA62" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F64" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA65" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA67" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G68" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F69" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G70" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F71" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA71" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F72" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G73" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA73" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F75" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA78" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA79" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F80" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA80" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F81" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA81" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA82" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA83" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA85" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F87" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA87" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA89" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F91" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F93" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G94" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA94" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F96" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA96" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA98" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F99" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA99" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F100" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA100" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F101" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA101" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F102" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA102" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F104" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA104" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA106" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="G109" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H110" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="I111" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA111" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="G112" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G114" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA114" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G115" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA115" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G116" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H117" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA117" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G118" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H119" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA119" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G120" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA120" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G121" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H122" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA122" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G123" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA123" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="G124" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA124" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F125" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA125" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="126" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F126" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA126" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C127" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F128" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA128" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F129" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA129" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F131" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA131" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="132" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F132" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA132" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="133" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C133" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F134" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA134" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="135" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F135" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA135" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F137" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA137" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="138" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="F138" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA138" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95223E6C-BAB3-4471-8D32-B500B7DB87FB}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E534C1DC-500B-4833-892E-CA8CE82E36F4}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="AS265" sqref="AS265"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBEB116-AD68-42C9-BE70-1773A01541E8}">
-  <dimension ref="B2:V74"/>
+  <dimension ref="B2:V108"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="V44" sqref="V44"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="AC108" sqref="AC108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4267,39 +6175,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D66" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D67" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D69" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D70" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D72" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D73" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D74" s="4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="5">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -4376,7 +6297,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A8A09A-7A2E-4E3F-A1DB-E7F1DC4ED15C}">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4400,10 +6323,39 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B226A3-BA92-45A5-9773-A4CC421AC167}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9DE37-24AB-4A7F-8EAC-CD047B2490E4}">
   <dimension ref="B2:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
@@ -4433,7 +6385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9614F39-882D-4078-A1A4-168F0A949DE3}">
   <dimension ref="B2:AW268"/>
   <sheetViews>
@@ -5526,7 +7478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C4C10F-54ED-4AEE-901C-909E3DFD30D9}">
   <dimension ref="B2:C65"/>
   <sheetViews>
@@ -6081,1080 +8033,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE91207-CC6B-4672-B70D-ED06DFF38CBA}">
-  <dimension ref="B2:AA138"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="2.85546875" style="1"/>
-    <col min="3" max="3" width="64.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="2.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F29" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="G30" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="E31" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F32" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="G33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA33" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="G34" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F38" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA38" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F40" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA40" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F41" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA41" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F43" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA43" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F45" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA45" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F46" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA46" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F49" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA49" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F50" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA50" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F52" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA52" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F53" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G54" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA54" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F56" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G57" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA57" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C58" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F59" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G60" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA60" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F61" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G62" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA62" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F64" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G65" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA65" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C66" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F67" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA67" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G68" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA68" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="69" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F69" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G70" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA70" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F71" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA71" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F72" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G73" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA73" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C74" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F75" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G76" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA76" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C77" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F78" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA78" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F79" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA79" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F80" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA80" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F81" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA81" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F82" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA82" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F83" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA83" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C84" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F85" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA85" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C86" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F87" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA87" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C88" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F89" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA89" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="E90" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F91" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA91" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C92" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F93" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G94" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA94" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C95" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F96" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA96" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C97" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F98" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA98" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F99" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA99" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F100" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA100" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F101" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA101" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F102" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA102" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C103" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F104" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA104" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C105" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="F106" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA106" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C107" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="G109" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="H110" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="I111" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA111" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="G112" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G114" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA114" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G115" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA115" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="116" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G116" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="117" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="H117" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA117" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="118" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G118" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="119" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="H119" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA119" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="120" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G120" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA120" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G121" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="122" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="H122" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA122" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="123" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G123" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA123" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="124" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="G124" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA124" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="125" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F125" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA125" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="126" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F126" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA126" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="127" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C127" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="128" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F128" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA128" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="129" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F129" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA129" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="130" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C130" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="131" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F131" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA131" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="132" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F132" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA132" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C133" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="134" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F134" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA134" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="135" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F135" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA135" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="136" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C136" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="137" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F137" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA137" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="138" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="F138" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA138" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/OLS Notes.xlsx
+++ b/OLS Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87322BA2-305B-42B0-ACE8-1D23BF65630B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61357E78-6F04-4D05-A33A-56654152EF2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{A2BC0EF4-4E46-4147-B52D-B6502B511DB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{A2BC0EF4-4E46-4147-B52D-B6502B511DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 01" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,18 @@
     <sheet name="Documentation 02" sheetId="5" r:id="rId4"/>
     <sheet name="Documentation 03" sheetId="6" r:id="rId5"/>
     <sheet name="Documentation 04" sheetId="12" r:id="rId6"/>
-    <sheet name="CMDB Tips Tricks 01" sheetId="4" r:id="rId7"/>
-    <sheet name="Step 5" sheetId="8" r:id="rId8"/>
-    <sheet name="Step 5a" sheetId="7" r:id="rId9"/>
-    <sheet name="Step 5b" sheetId="9" r:id="rId10"/>
-    <sheet name="Visit Customer Survey" sheetId="10" r:id="rId11"/>
-    <sheet name="Complement Document" sheetId="11" r:id="rId12"/>
+    <sheet name="Documentation 05" sheetId="13" r:id="rId7"/>
+    <sheet name="Diagram Table" sheetId="14" r:id="rId8"/>
+    <sheet name="Video" sheetId="15" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="16" r:id="rId10"/>
+    <sheet name="CMDB Tips Tricks 01" sheetId="4" r:id="rId11"/>
+    <sheet name="Step 5" sheetId="8" r:id="rId12"/>
+    <sheet name="Step 5a" sheetId="7" r:id="rId13"/>
+    <sheet name="Step 5b" sheetId="9" r:id="rId14"/>
+    <sheet name="Visit Customer Survey" sheetId="10" r:id="rId15"/>
+    <sheet name="Complement Document" sheetId="11" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="313">
   <si>
     <r>
       <t>\OLS\Dsf.Olss\</t>
@@ -2948,6 +2952,24 @@
   </si>
   <si>
     <t>Step Migrasi MFAPPL - OLSS</t>
+  </si>
+  <si>
+    <t>Monitor Billing</t>
+  </si>
+  <si>
+    <t>Diagram Table</t>
+  </si>
+  <si>
+    <t>Bikin sendiri:</t>
+  </si>
+  <si>
+    <t>Pak Firmansyah:</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Sharing about how to automatic release in Azure DevOps</t>
   </si>
 </sst>
 </file>
@@ -3361,6 +3383,271 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>65762</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBC0E3A-F21A-486A-BD14-44C7297BE85A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="571500"/>
+          <a:ext cx="7304762" cy="942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152095</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD628B51-A5C7-4F83-8BD3-EA4DF4A2CD76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="1714500"/>
+          <a:ext cx="2438095" cy="1609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="13009524" cy="22323809"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6694BBDF-0339-4627-BD57-BA6B1E7B3C66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="571500"/>
+          <a:ext cx="13009524" cy="22323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>6809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AB5E0B-233B-45AB-9E57-260CD07D17AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="571500"/>
+          <a:ext cx="13009524" cy="21723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>120</xdr:col>
+      <xdr:colOff>101952</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>94143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AA8DB2-BB3D-4A4A-9744-A8EFEA511DD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="571500"/>
+          <a:ext cx="22580952" cy="8857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4355,17 +4642,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>65762</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180857</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180405</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBC0E3A-F21A-486A-BD14-44C7297BE85A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DE11BA-A955-4782-851A-9F691A2F88D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4382,7 +4669,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="381000" y="571500"/>
-          <a:ext cx="7304762" cy="942857"/>
+          <a:ext cx="4561905" cy="2057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4402,21 +4689,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152095</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85524</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>132881</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>18810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD628B51-A5C7-4F83-8BD3-EA4DF4A2CD76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150835F5-258A-4DA2-8115-3495418D973A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4432,8 +4719,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="1714500"/>
-          <a:ext cx="2438095" cy="1609524"/>
+          <a:off x="381000" y="2857500"/>
+          <a:ext cx="3752381" cy="1923810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4454,20 +4741,25 @@
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="13009524" cy="22323809"/>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>131809</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47286</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6694BBDF-0339-4627-BD57-BA6B1E7B3C66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD63AEE7-ABED-4CA2-9F05-ECDED51853C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4483,64 +4775,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="571500"/>
-          <a:ext cx="13009524" cy="22323809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="95000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>55524</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>6809</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AB5E0B-233B-45AB-9E57-260CD07D17AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="381000" y="571500"/>
-          <a:ext cx="13009524" cy="21723809"/>
+          <a:off x="381000" y="952500"/>
+          <a:ext cx="12323809" cy="2714286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4560,21 +4796,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>120</xdr:col>
-      <xdr:colOff>101952</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>94143</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>46667</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AA8DB2-BB3D-4A4A-9744-A8EFEA511DD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCBCDD86-12D5-4C55-B659-DA701AA0005A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4590,8 +4826,64 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="571500"/>
-          <a:ext cx="22580952" cy="8857143"/>
+          <a:off x="381000" y="4191000"/>
+          <a:ext cx="7666667" cy="3676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>104024</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08940017-4475-4889-B315-557CC376D6E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="952500"/>
+          <a:ext cx="6009524" cy="5095238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4955,6 +5247,1707 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F0519F-BEA1-402D-BC5E-E35B8AD289A1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AS21" sqref="AS21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9DE37-24AB-4A7F-8EAC-CD047B2490E4}">
+  <dimension ref="B2:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9614F39-882D-4078-A1A4-168F0A949DE3}">
+  <dimension ref="B2:AW268"/>
+  <sheetViews>
+    <sheetView topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="AB232" sqref="AB232"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C129" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C130" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C133" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="134" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D134" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA134" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB135" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW135" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB136" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW136" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB137" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW137" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D138" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA138" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB139" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW139" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="140" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB140" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW140" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB141" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW141" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="142" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB142" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW142" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB143" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW143" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB144" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW144" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D145" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA145" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB146" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW146" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D147" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA147" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB148" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW148" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="149" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D149" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA149" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB150" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW150" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D151" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA151" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="152" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB152" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW152" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="153" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C153" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="154" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D154" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA154" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="155" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB155" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW155" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="156" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB156" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW156" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB157" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW157" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="158" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB158" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW158" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D159" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA159" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB160" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="161" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC161" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW161" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="162" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AA162" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB163" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC164" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW164" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="165" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC165" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW165" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="166" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D166" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA166" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="167" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C167" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB167" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW167" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="168" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D168" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA168" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="169" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB169" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW169" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="170" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D170" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA170" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="171" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB171" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW171" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="172" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB172" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW172" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="173" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D173" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA173" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="174" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB174" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW174" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D175" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA175" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="176" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB176" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW176" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="177" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB177" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW177" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="178" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C178" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="179" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D179" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA179" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="180" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB180" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW180" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB181" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW181" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="182" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D182" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA182" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="183" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB183" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW183" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="184" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="E184" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB184" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="185" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC185" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW185" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="186" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D186" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA186" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="187" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="E187" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB187" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="188" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC188" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW188" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="189" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D189" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA189" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB190" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="191" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC191" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AW191" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="192" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB192" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="193" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AC193" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW193" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="194" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D194" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA194" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="195" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB195" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AC196" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AW196" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="197" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D197" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA197" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="198" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB198" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW198" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="199" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AC199" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW199" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB200" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="201" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AC201" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW201" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="202" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB202" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW202" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="203" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB203" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="204" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AC204" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW204" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="205" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D205" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA205" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="206" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB206" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="207" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AC207" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW207" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="208" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D208" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA208" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="209" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB209" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW209" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="210" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB210" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW210" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="211" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB211" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW211" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="212" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB212" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW212" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="213" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB213" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW213" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="214" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB214" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW214" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="215" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D215" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA215" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="216" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB216" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW216" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="217" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D217" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA217" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="218" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB218" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW218" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="219" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D219" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA219" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB220" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW220" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="221" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AA221" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="222" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB222" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW222" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="223" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D223" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA223" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="224" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB224" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="225" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC225" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW225" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="226" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D226" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA226" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="227" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB227" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW227" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="228" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D228" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA228" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="229" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB229" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW229" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="230" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB230" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW230" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="231" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB231" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AW231" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="232" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB232" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW232" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="233" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D233" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA233" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="234" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB234" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AW234" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="235" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D235" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA235" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="236" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AB236" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW236" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="237" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="D237" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA237" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="238" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C238" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB238" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="239" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AC239" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="240" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AD240" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="241" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AE241" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW241" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="242" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC242" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="244" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC244" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AW244" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="245" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC245" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AW245" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="246" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC246" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="247" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AD247" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW247" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="248" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC248" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="249" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AD249" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW249" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="250" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC250" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AW250" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC251" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AD252" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW252" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="253" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC253" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW253" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="254" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AC254" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW254" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="255" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AB255" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AW255" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="256" spans="28:49" x14ac:dyDescent="0.25">
+      <c r="AB256" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW256" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="257" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D257" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA257" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="258" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB258" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AW258" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="259" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB259" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AW259" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="260" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D260" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA260" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="261" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB261" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AW261" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="262" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB262" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW262" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="263" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D263" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA263" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="264" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB264" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW264" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="265" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB265" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW265" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="266" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="D266" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA266" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="267" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB267" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW267" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="268" spans="4:49" x14ac:dyDescent="0.25">
+      <c r="AB268" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AW268" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C4C10F-54ED-4AEE-901C-909E3DFD30D9}">
+  <dimension ref="B2:C65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="1"/>
+    <col min="2" max="2" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>B2 &amp; " as [" &amp; B2 &amp; "],"</f>
+        <v>OPLBasicCondition.AccesoriesPriceTotal as [OPLBasicCondition.AccesoriesPriceTotal],</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C32" si="0">B3 &amp; " as [" &amp; B3 &amp; "],"</f>
+        <v>OPLBasicCondition.ATPMDiscount as [OPLBasicCondition.ATPMDiscount],</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLBasicCondition.CarroserriePrice as [OPLBasicCondition.CarroserriePrice],</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLBasicCondition.CarroserriePriceTotal as [OPLBasicCondition.CarroserriePriceTotal],</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLBasicCondition.ProductPrice as [OPLBasicCondition.ProductPrice],</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLBasicCondition.ProductPriceTotal as [OPLBasicCondition.ProductPriceTotal],</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLBasicCondition.ResidualValueAmount as [OPLBasicCondition.ResidualValueAmount],</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLBasicCondition.ResidualValuePercent as [OPLBasicCondition.ResidualValuePercent],</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.CRVATInAccessories as [OPLCalculation.CRVATInAccessories],</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.CRVATInCarroserries as [OPLCalculation.CRVATInCarroserries],</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.CRVATInUnit as [OPLCalculation.CRVATInUnit],</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.InsuranceCommisionAmount as [OPLCalculation.InsuranceCommisionAmount],</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.InterestCostTop as [OPLCalculation.InterestCostTop],</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.InterestExpense as [OPLCalculation.InterestExpense],</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.InterestExpenseBAST as [OPLCalculation.InterestExpenseBAST],</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.InterestExpenseTAX as [OPLCalculation.InterestExpenseTAX],</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.InterestExpenseVAT as [OPLCalculation.InterestExpenseVAT],</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.IsNewCalculation as [OPLCalculation.IsNewCalculation],</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.LeasePeriodPlan as [OPLCalculation.LeasePeriodPlan],</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.MonthlyInstallmentAmount as [OPLCalculation.MonthlyInstallmentAmount],</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.SumMaintenanceCost as [OPLCalculation.SumMaintenanceCost],</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.TotalDemobilizationFeeAmount as [OPLCalculation.TotalDemobilizationFeeAmount],</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLCalculation.TotalMobilizationFeeAmount as [OPLCalculation.TotalMobilizationFeeAmount],</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLFinanceCondition.BorrowingEffectivePercent as [OPLFinanceCondition.BorrowingEffectivePercent],</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLFinanceCondition.PrimeEffectivePercent as [OPLFinanceCondition.PrimeEffectivePercent],</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLFinanceCondition.RegistrationValueAmount as [OPLFinanceCondition.RegistrationValueAmount],</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLFinanceCondition.ReplacementCarAmount as [OPLFinanceCondition.ReplacementCarAmount],</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLFinanceCondition.SpreadEffectivePercent as [OPLFinanceCondition.SpreadEffectivePercent],</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLFinanceCondition.TermPaymentDays as [OPLFinanceCondition.TermPaymentDays],</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLInsuranceCondition.CommissionRate as [OPLInsuranceCondition.CommissionRate],</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPLInsuranceCondition.TotalGrossPremium as [OPLInsuranceCondition.TotalGrossPremium],</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="8">
+        <v>11764705</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="8">
+        <v>259570000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="8">
+        <v>259570000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="8">
+        <v>222890979</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="8">
+        <v>85.87</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="8">
+        <v>20733636</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1293697</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="8">
+        <v>27309376</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C50" s="8">
+        <v>11530</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1857519</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="8">
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="8">
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="8">
+        <v>11.500500000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="8">
+        <v>8362000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" s="8">
+        <v>8306240</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="8">
+        <v>5.0004999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B108">
+    <sortCondition ref="B2:B108"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE91207-CC6B-4672-B70D-ED06DFF38CBA}">
   <dimension ref="B2:AA138"/>
   <sheetViews>
@@ -6030,7 +8023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95223E6C-BAB3-4471-8D32-B500B7DB87FB}">
   <dimension ref="B2"/>
   <sheetViews>
@@ -6054,7 +8047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E534C1DC-500B-4833-892E-CA8CE82E36F4}">
   <dimension ref="B2"/>
   <sheetViews>
@@ -6326,7 +8319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B226A3-BA92-45A5-9773-A4CC421AC167}">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -6352,45 +8345,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9DE37-24AB-4A7F-8EAC-CD047B2490E4}">
-  <dimension ref="B2:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57855EB7-7D26-48E1-9541-B0D3A208220E}">
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="2.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="S10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="S11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9614F39-882D-4078-A1A4-168F0A949DE3}">
-  <dimension ref="B2:AW268"/>
-  <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="AB232" sqref="AB232"/>
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6399,1638 +8358,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C129" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="130" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C130" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="133" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C133" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="134" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D134" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA134" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="135" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB135" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW135" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="136" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB136" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW136" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="137" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB137" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW137" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D138" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA138" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="139" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB139" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW139" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="140" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB140" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW140" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="141" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB141" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW141" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="142" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB142" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW142" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB143" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW143" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="144" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB144" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW144" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="145" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D145" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA145" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="146" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB146" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AW146" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="147" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D147" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA147" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="148" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB148" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AW148" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="149" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D149" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA149" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="150" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB150" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW150" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="151" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D151" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA151" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="152" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB152" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW152" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="153" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C153" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="154" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D154" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA154" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="155" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB155" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW155" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="156" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB156" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW156" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="157" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB157" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW157" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="158" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB158" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW158" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="159" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D159" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA159" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="160" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB160" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="161" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AC161" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AW161" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="162" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AA162" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="163" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB163" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="164" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AC164" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW164" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="165" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AC165" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW165" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="166" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D166" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA166" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="167" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C167" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB167" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW167" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="168" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D168" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA168" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="169" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB169" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW169" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="170" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D170" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA170" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="171" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB171" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW171" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="172" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB172" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW172" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="173" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D173" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA173" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="174" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB174" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW174" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="175" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D175" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA175" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="176" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB176" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AW176" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="177" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB177" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW177" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="178" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C178" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="179" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D179" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA179" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="180" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB180" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW180" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="181" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB181" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW181" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="182" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D182" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA182" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="183" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB183" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW183" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="184" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="E184" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB184" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="185" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AC185" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW185" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="186" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D186" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA186" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="187" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="E187" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB187" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="188" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AC188" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW188" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="189" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D189" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA189" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="190" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB190" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="191" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AC191" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AW191" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="192" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB192" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="193" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AC193" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AW193" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="194" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D194" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA194" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="195" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB195" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="196" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AC196" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AW196" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="197" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D197" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA197" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="198" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB198" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW198" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="199" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AC199" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW199" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="200" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB200" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="201" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AC201" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AW201" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="202" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB202" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AW202" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="203" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB203" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="204" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AC204" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AW204" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="205" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D205" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA205" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="206" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB206" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="207" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AC207" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW207" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="208" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D208" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA208" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="209" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB209" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW209" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="210" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB210" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW210" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="211" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB211" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW211" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="212" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB212" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW212" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="213" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB213" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW213" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="214" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB214" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW214" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="215" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D215" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA215" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="216" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB216" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW216" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="217" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D217" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA217" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="218" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB218" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW218" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="219" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D219" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA219" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="220" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB220" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AW220" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="221" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AA221" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="222" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB222" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW222" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="223" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D223" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA223" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="224" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB224" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="225" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AC225" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW225" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="226" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D226" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA226" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="227" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB227" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AW227" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="228" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D228" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA228" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="229" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB229" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AW229" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="230" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB230" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AW230" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="231" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB231" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AW231" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="232" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB232" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AW232" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="233" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D233" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA233" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="234" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB234" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AW234" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="235" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D235" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA235" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="236" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AB236" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AW236" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="237" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="D237" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA237" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="238" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C238" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB238" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="239" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AC239" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="240" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="AD240" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="241" spans="28:49" x14ac:dyDescent="0.25">
-      <c r="AE241" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW241" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="242" spans="28:49" x14ac:dyDescent="0.25">
-      <c r="AC242" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="244" spans="28:49" x14ac:dyDescent="0.25">
-      <c r="AC244" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AW244" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="245" spans="28:49" x14ac:dyDescent="0.25">
-      <c r="AC245" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AW245" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="246" spans="28:49" x14ac:dyDescent="0.25">
-      <c r="AC246" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="247" spans="28:49" x14ac:dyDescent="0.25">
-      <c r="AD247" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW247" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="248" spans="28:49" x14ac:dyDescent="0.25">
-      <c r="AC248" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="249" spans="28:49" x14ac:dyDescent="0.25">
-      <c r="AD249" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW249" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="250" spans="28:49" x14ac:dyDescent="0.25">
-      <c r="AC250" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AW250" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="251" spans="28:49" x14ac:dyDescent="0.25">
-      <c r="AC251" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="252" spans="28:49" x14ac:dyDescent="0.25">
-      <c r="AD252" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AW252" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="253" spans="28:49" x14ac:dyDescent="0.25">
-      <c r="AC253" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW253" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="254" spans="28:49" x14ac:dyDescent="0.25">
-      <c r="AC254" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW254" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="255" spans="28:49" x14ac:dyDescent="0.25">
-      <c r="AB255" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AW255" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="256" spans="28:49" x14ac:dyDescent="0.25">
-      <c r="AB256" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AW256" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="257" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D257" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA257" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="258" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB258" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AW258" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="259" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB259" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AW259" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="260" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D260" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA260" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="261" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB261" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AW261" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="262" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB262" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW262" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="263" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D263" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA263" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="264" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB264" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AW264" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="265" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB265" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AW265" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="266" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="D266" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA266" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="267" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB267" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW267" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="268" spans="4:49" x14ac:dyDescent="0.25">
-      <c r="AB268" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW268" s="1" t="s">
-        <v>254</v>
+      <c r="B2" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADFCEA2-E089-49B3-99F6-8403DCDBD3DC}">
+  <dimension ref="B2:B27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C4C10F-54ED-4AEE-901C-909E3DFD30D9}">
-  <dimension ref="B2:C65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DBD36A-382A-42F3-BE5C-E8B4290F255A}">
+  <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1"/>
-    <col min="2" max="2" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="2.85546875" style="1"/>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>B2 &amp; " as [" &amp; B2 &amp; "],"</f>
-        <v>OPLBasicCondition.AccesoriesPriceTotal as [OPLBasicCondition.AccesoriesPriceTotal],</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C32" si="0">B3 &amp; " as [" &amp; B3 &amp; "],"</f>
-        <v>OPLBasicCondition.ATPMDiscount as [OPLBasicCondition.ATPMDiscount],</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLBasicCondition.CarroserriePrice as [OPLBasicCondition.CarroserriePrice],</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLBasicCondition.CarroserriePriceTotal as [OPLBasicCondition.CarroserriePriceTotal],</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLBasicCondition.ProductPrice as [OPLBasicCondition.ProductPrice],</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLBasicCondition.ProductPriceTotal as [OPLBasicCondition.ProductPriceTotal],</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLBasicCondition.ResidualValueAmount as [OPLBasicCondition.ResidualValueAmount],</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLBasicCondition.ResidualValuePercent as [OPLBasicCondition.ResidualValuePercent],</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLCalculation.CRVATInAccessories as [OPLCalculation.CRVATInAccessories],</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLCalculation.CRVATInCarroserries as [OPLCalculation.CRVATInCarroserries],</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLCalculation.CRVATInUnit as [OPLCalculation.CRVATInUnit],</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLCalculation.InsuranceCommisionAmount as [OPLCalculation.InsuranceCommisionAmount],</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLCalculation.InterestCostTop as [OPLCalculation.InterestCostTop],</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLCalculation.InterestExpense as [OPLCalculation.InterestExpense],</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLCalculation.InterestExpenseBAST as [OPLCalculation.InterestExpenseBAST],</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLCalculation.InterestExpenseTAX as [OPLCalculation.InterestExpenseTAX],</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLCalculation.InterestExpenseVAT as [OPLCalculation.InterestExpenseVAT],</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLCalculation.IsNewCalculation as [OPLCalculation.IsNewCalculation],</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLCalculation.LeasePeriodPlan as [OPLCalculation.LeasePeriodPlan],</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLCalculation.MonthlyInstallmentAmount as [OPLCalculation.MonthlyInstallmentAmount],</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLCalculation.SumMaintenanceCost as [OPLCalculation.SumMaintenanceCost],</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLCalculation.TotalDemobilizationFeeAmount as [OPLCalculation.TotalDemobilizationFeeAmount],</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLCalculation.TotalMobilizationFeeAmount as [OPLCalculation.TotalMobilizationFeeAmount],</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLFinanceCondition.BorrowingEffectivePercent as [OPLFinanceCondition.BorrowingEffectivePercent],</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLFinanceCondition.PrimeEffectivePercent as [OPLFinanceCondition.PrimeEffectivePercent],</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLFinanceCondition.RegistrationValueAmount as [OPLFinanceCondition.RegistrationValueAmount],</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLFinanceCondition.ReplacementCarAmount as [OPLFinanceCondition.ReplacementCarAmount],</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLFinanceCondition.SpreadEffectivePercent as [OPLFinanceCondition.SpreadEffectivePercent],</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLFinanceCondition.TermPaymentDays as [OPLFinanceCondition.TermPaymentDays],</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLInsuranceCondition.CommissionRate as [OPLInsuranceCondition.CommissionRate],</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OPLInsuranceCondition.TotalGrossPremium as [OPLInsuranceCondition.TotalGrossPremium],</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="8">
-        <v>11764705</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="8">
-        <v>259570000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="8">
-        <v>259570000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="8">
-        <v>222890979</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="8">
-        <v>85.87</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="8">
-        <v>20733636</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C47" s="8">
-        <v>1293697</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C48" s="8">
-        <v>27309376</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C50" s="8">
-        <v>11530</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C51" s="8">
-        <v>1857519</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="8">
-        <v>4450000</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" s="8">
-        <v>9600000</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C56" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="8">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="8">
-        <v>11.500500000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C60" s="8">
-        <v>8362000</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C61" s="8">
-        <v>8306240</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="8">
-        <v>5.0004999999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C63" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" s="8">
-        <v>0</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B108">
-    <sortCondition ref="B2:B108"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/OLS Notes.xlsx
+++ b/OLS Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61357E78-6F04-4D05-A33A-56654152EF2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DEC3F2-E516-48CA-8BCA-B88F32614756}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{A2BC0EF4-4E46-4147-B52D-B6502B511DB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{A2BC0EF4-4E46-4147-B52D-B6502B511DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 01" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,18 @@
     <sheet name="Documentation 04" sheetId="12" r:id="rId6"/>
     <sheet name="Documentation 05" sheetId="13" r:id="rId7"/>
     <sheet name="Diagram Table" sheetId="14" r:id="rId8"/>
-    <sheet name="Video" sheetId="15" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="16" r:id="rId10"/>
+    <sheet name="Monitor Billing Problem" sheetId="16" r:id="rId9"/>
+    <sheet name="Video" sheetId="15" r:id="rId10"/>
     <sheet name="CMDB Tips Tricks 01" sheetId="4" r:id="rId11"/>
     <sheet name="Step 5" sheetId="8" r:id="rId12"/>
     <sheet name="Step 5a" sheetId="7" r:id="rId13"/>
     <sheet name="Step 5b" sheetId="9" r:id="rId14"/>
     <sheet name="Visit Customer Survey" sheetId="10" r:id="rId15"/>
     <sheet name="Complement Document" sheetId="11" r:id="rId16"/>
+    <sheet name="TEMPLATES" sheetId="17" r:id="rId17"/>
+    <sheet name="Transparant Background Color" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="345">
   <si>
     <r>
       <t>\OLS\Dsf.Olss\</t>
@@ -2970,13 +2972,160 @@
   </si>
   <si>
     <t>Sharing about how to automatic release in Azure DevOps</t>
+  </si>
+  <si>
+    <t>Monitor Billing Problem</t>
+  </si>
+  <si>
+    <t>Tidak ada di OLS:</t>
+  </si>
+  <si>
+    <t>0000415/4/10/02/2022</t>
+  </si>
+  <si>
+    <t>0000597/4/08/01/2022</t>
+  </si>
+  <si>
+    <t>0000897/4/01/11/2021</t>
+  </si>
+  <si>
+    <t>0000940/4/01/11/2021</t>
+  </si>
+  <si>
+    <t>Contoh cek:</t>
+  </si>
+  <si>
+    <t>select a.*</t>
+  </si>
+  <si>
+    <t>from OPLAgreement a</t>
+  </si>
+  <si>
+    <r>
+      <t>where a.AgreementNumber = '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0000415/4/10/02/2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <t>from Tb_BIL_PaySchedule a</t>
+  </si>
+  <si>
+    <t>where a.IdOPLAgreement = 2958;</t>
+  </si>
+  <si>
+    <t>from Tb_BIL_PayScheduleDtl a</t>
+  </si>
+  <si>
+    <t>where a.IdTb_BIL_PaySchedule = 3984</t>
+  </si>
+  <si>
+    <t>order by a.StartPeriod desc, a.EndPeriod desc;</t>
+  </si>
+  <si>
+    <t>http://dc-olssweb.corp.dipostar.com/olss2/MGTIntegrationPaySchdl</t>
+  </si>
+  <si>
+    <t>http://dc-olssweb.corp.dipostar.com/olss2/BILSchedule</t>
+  </si>
+  <si>
+    <t>http://dc-olssweb.corp.dipostar.com/olss2/BILCreation/DetailBilling/3983</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Diambil dari Sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20220325</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FRI</t>
+    </r>
+  </si>
+  <si>
+    <t>←</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>↔</t>
+  </si>
+  <si>
+    <t>↕</t>
+  </si>
+  <si>
+    <t>↙</t>
+  </si>
+  <si>
+    <t>↘</t>
+  </si>
+  <si>
+    <t>↖</t>
+  </si>
+  <si>
+    <t>↗</t>
+  </si>
+  <si>
+    <t>©</t>
+  </si>
+  <si>
+    <t>™</t>
+  </si>
+  <si>
+    <t>®</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3049,8 +3198,27 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3060,6 +3228,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3076,7 +3286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3099,6 +3309,39 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3388,6 +3631,62 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>104024</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08940017-4475-4889-B315-557CC376D6E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="952500"/>
+          <a:ext cx="6009524" cy="5095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -3489,7 +3788,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3540,7 +3839,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3647,7 +3946,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3999,6 +4298,1882 @@
           <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB18A69-963D-4AD7-A15D-2EA558E87AA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="190500"/>
+          <a:ext cx="274320" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="279400" sx="111000" sy="111000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="0000FF">
+              <a:alpha val="78000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8730CA56-08FC-4847-BE02-564C58A8AF2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="952500"/>
+          <a:ext cx="3733800" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="279400" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="78000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="72000" tIns="72000" rIns="72000" bIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Lucida Sans Typewriter" panose="020B0509030504030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. tb_r_credit_mgmt.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Lucida Sans Typewriter" panose="020B0509030504030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>usl_source_cd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Lucida Sans Typewriter" panose="020B0509030504030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. tb_r_credit_mgmt.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Lucida Sans Typewriter" panose="020B0509030504030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>csp_source_cd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Lucida Sans Typewriter" panose="020B0509030504030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. tb_r_credit_mgmt.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Lucida Sans Typewriter" panose="020B0509030504030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bpkb_ktp_id_no</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Lucida Sans Typewriter" panose="020B0509030504030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. tb_r_credit_mgmt.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Lucida Sans Typewriter" panose="020B0509030504030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bpkb_nm_jur_personality_cd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Lucida Sans Typewriter" panose="020B0509030504030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. tb_r_credit_mgmt.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Lucida Sans Typewriter" panose="020B0509030504030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bpkb_nm_occupation_cd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10668</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183EEC0C-14F5-4A9E-AF4E-891001A79D29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="190500"/>
+          <a:ext cx="201168" cy="201168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="63500" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF9A09D-C85E-4DC9-8391-986FFBFD79AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="190500"/>
+          <a:ext cx="1895475" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000">
+              <a:alpha val="67000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="67000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D060ECB1-DFDC-4EBA-BA95-82BC20B9826A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="190500"/>
+          <a:ext cx="3962401" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:schemeClr val="tx1"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="72000" tIns="72000" rIns="72000" bIns="72000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Lucida Sans Typewriter" panose="020B0509030504030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PKG_ACA060103W.DO_SEARCH</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="2000" b="1">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Lucida Sans Typewriter" panose="020B0509030504030204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C5BA41-31DA-45CB-94AA-BDFAD24D8507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="838200"/>
+          <a:ext cx="1447800" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="215900" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="FF0000"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="72000" tIns="72000" rIns="72000" bIns="72000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>BEFORE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10668</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>10668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{821CAC31-7487-408F-9944-95F0464B59BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="571500"/>
+          <a:ext cx="201168" cy="201168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" algn="tl" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="90000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC294CC6-11BD-4775-B5B3-D1A8F1E3E9B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="571500"/>
+          <a:ext cx="1457325" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000">
+              <a:alpha val="67000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="67000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D74E74-B66B-420F-A0F7-172ADEC27109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="190500" y="2943225"/>
+          <a:ext cx="1371600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="88900">
+          <a:solidFill>
+            <a:srgbClr val="FF0000">
+              <a:alpha val="45000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048D852B-2B93-44FB-9128-56384A830CC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1552575" y="2647950"/>
+          <a:ext cx="1171576" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="0000CC">
+              <a:alpha val="45000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>37171</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>160996</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D183E8-B0C0-46B8-B702-A034F5481993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5942671" y="990600"/>
+          <a:ext cx="1266825" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="127000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="FF0000"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>ACA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116A3E4D-2276-4A28-AD17-A1EB61BE135F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514850" y="1454303"/>
+          <a:ext cx="4333875" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="0000FF"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>Auto Credit Approval</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>62249</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>30399</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C99F53-78E4-45DF-9287-234CA57B2B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18900000">
+          <a:off x="3110249" y="1558636"/>
+          <a:ext cx="1492150" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4400" b="1">
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="23000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="12000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="190500" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="90000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ACA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B3FD56-B9D8-4463-8923-54F5B1C05A1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="2286000"/>
+          <a:ext cx="1895475" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0000FF">
+              <a:alpha val="78000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="67000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Arrow: Right 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8895D14-547E-44F0-A3AD-5F9E2FE0DB96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="2676525"/>
+          <a:ext cx="1000126" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 51258"/>
+            <a:gd name="adj2" fmla="val 56797"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="bg1">
+                <a:alpha val="23000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0000FF">
+                <a:alpha val="45000"/>
+              </a:srgbClr>
+            </a:gs>
+            <a:gs pos="25000">
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+                <a:alpha val="45000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="95250">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Arrow: Right 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4011BD8-6B36-46CC-990B-A668CA023BE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="2676525"/>
+          <a:ext cx="1000126" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 51258"/>
+            <a:gd name="adj2" fmla="val 56797"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="bg1">
+                <a:alpha val="23000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FF0000">
+                <a:alpha val="45000"/>
+              </a:srgbClr>
+            </a:gs>
+            <a:gs pos="18000">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+                <a:alpha val="45000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="95250">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86504C35-D3D8-4B90-8229-1AF73527D9AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2667000" y="3048000"/>
+          <a:ext cx="1171576" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="0000CC">
+              <a:alpha val="45000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:headEnd type="oval" w="sm" len="sm"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10668</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7180A0-A63F-4B46-86C9-B460C82975FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="2286000"/>
+          <a:ext cx="201168" cy="201168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>190095</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F38236F-704E-4E81-ABD6-6D7DB54971BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="190500"/>
+          <a:ext cx="3238095" cy="3485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="90000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190095</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>56714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF97A05-1533-4CC0-9C23-78F366757629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="3810000"/>
+          <a:ext cx="3238095" cy="3485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="90000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>190095</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7708649C-AB9E-40BC-A021-41D7CF8E5659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="190500"/>
+          <a:ext cx="3238095" cy="3485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="90000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>190095</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>56714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D0C1F9-9D77-4949-9D29-9BBE6C334329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="3810000"/>
+          <a:ext cx="3238095" cy="3485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="90000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>190095</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>56714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5661FED2-737E-498A-8EAB-71DA29E9248C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="3810000"/>
+          <a:ext cx="3238095" cy="3485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="90000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>56762</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD7C51F-B17B-4D2E-8EE1-CB7B4C8D4A89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="190500"/>
+          <a:ext cx="3104762" cy="3428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="90000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>56762</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>190071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{908498A2-9463-4DD7-9F91-44DADEA0177E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="7620000"/>
+          <a:ext cx="3104762" cy="3428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="90000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -4852,21 +7027,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>104024</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142238</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>37762</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>133095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08940017-4475-4889-B315-557CC376D6E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CAD0BC-1D4A-4424-A2A8-21A73962702E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4882,8 +7057,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="952500"/>
-          <a:ext cx="6009524" cy="5095238"/>
+          <a:off x="762000" y="24955500"/>
+          <a:ext cx="2704762" cy="2038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4897,6 +7072,444 @@
         </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>75333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039DCF95-69C7-4860-959D-55A65EF86D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="17716500"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>17424</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>37233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9292F172-5D29-4103-BD40-8ADB7EB81523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="17868900"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>75333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7712228-E161-4E8F-9A60-630B03575014}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="27622500"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>17424</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>37233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30DD004D-A130-4683-8C6C-25023DE64576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="27774900"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>17452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E947C7-7AD5-4B47-94E7-213A98D61AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="35242500"/>
+          <a:ext cx="13009524" cy="12780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66190</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>180595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39C95A3-7869-44EC-8669-9814F6CA4D4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="14097000"/>
+          <a:ext cx="3876190" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>8381</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123286</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247520F2-2A6E-44B2-8B06-C348F779063A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="381000" y="952500"/>
+          <a:ext cx="9152381" cy="4314286"/>
+          <a:chOff x="381000" y="952500"/>
+          <a:chExt cx="9152381" cy="4314286"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F2FAC9-2A6A-43B6-AAD6-128AA6F81FA7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="381000" y="952500"/>
+            <a:ext cx="9152381" cy="4314286"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="95000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8E8DFE-D4F5-4D2B-A1E8-21B70649DF34}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="552450" y="3990975"/>
+            <a:ext cx="8715376" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000">
+                <a:alpha val="78000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="67000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5247,19 +7860,31 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F0519F-BEA1-402D-BC5E-E35B8AD289A1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DBD36A-382A-42F3-BE5C-E8B4290F255A}">
+  <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AS21" sqref="AS21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="2.85546875" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5301,7 +7926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9614F39-882D-4078-A1A4-168F0A949DE3}">
   <dimension ref="B2:AW268"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB232" sqref="AB232"/>
     </sheetView>
   </sheetViews>
@@ -6394,7 +9019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C4C10F-54ED-4AEE-901C-909E3DFD30D9}">
   <dimension ref="B2:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -8071,6 +10696,118 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52A5C49-EEB6-4520-84B7-219EAA25C2B3}">
+  <dimension ref="D4:AT16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="AK15" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL15" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="AM15" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN15" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO15" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP15" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="AQ15" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="AR15" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AS15" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT15" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="AK16" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL16" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM16" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B892934-3CC2-4CD6-BDD9-591600373CFC}">
+  <dimension ref="B2:AR41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="W2" s="14">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B21" s="16">
+        <v>4</v>
+      </c>
+      <c r="W21" s="17">
+        <v>5</v>
+      </c>
+      <c r="AR21" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="19">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBEB116-AD68-42C9-BE70-1773A01541E8}">
   <dimension ref="B2:V108"/>
@@ -8403,11 +11140,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DBD36A-382A-42F3-BE5C-E8B4290F255A}">
-  <dimension ref="B2:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F0519F-BEA1-402D-BC5E-E35B8AD289A1}">
+  <dimension ref="B2:U164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AR14" sqref="AR14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BD17" sqref="BD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8416,13 +11153,324 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>311</v>
+      <c r="B2" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>312</v>
+      <c r="B4" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/OLS Notes.xlsx
+++ b/OLS Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\OLS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DEC3F2-E516-48CA-8BCA-B88F32614756}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53DFA8F-3A80-4137-A8C9-59B763D43689}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{A2BC0EF4-4E46-4147-B52D-B6502B511DB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{A2BC0EF4-4E46-4147-B52D-B6502B511DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 01" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,18 @@
     <sheet name="Documentation 03" sheetId="6" r:id="rId5"/>
     <sheet name="Documentation 04" sheetId="12" r:id="rId6"/>
     <sheet name="Documentation 05" sheetId="13" r:id="rId7"/>
-    <sheet name="Diagram Table" sheetId="14" r:id="rId8"/>
-    <sheet name="Monitor Billing Problem" sheetId="16" r:id="rId9"/>
-    <sheet name="Video" sheetId="15" r:id="rId10"/>
-    <sheet name="CMDB Tips Tricks 01" sheetId="4" r:id="rId11"/>
-    <sheet name="Step 5" sheetId="8" r:id="rId12"/>
-    <sheet name="Step 5a" sheetId="7" r:id="rId13"/>
-    <sheet name="Step 5b" sheetId="9" r:id="rId14"/>
-    <sheet name="Visit Customer Survey" sheetId="10" r:id="rId15"/>
-    <sheet name="Complement Document" sheetId="11" r:id="rId16"/>
-    <sheet name="TEMPLATES" sheetId="17" r:id="rId17"/>
-    <sheet name="Transparant Background Color" sheetId="18" r:id="rId18"/>
+    <sheet name="Documentation 06" sheetId="19" r:id="rId8"/>
+    <sheet name="Diagram Table" sheetId="14" r:id="rId9"/>
+    <sheet name="Monitor Billing Problem" sheetId="16" r:id="rId10"/>
+    <sheet name="Video" sheetId="15" r:id="rId11"/>
+    <sheet name="CMDB Tips Tricks 01" sheetId="4" r:id="rId12"/>
+    <sheet name="Step 5" sheetId="8" r:id="rId13"/>
+    <sheet name="Step 5a" sheetId="7" r:id="rId14"/>
+    <sheet name="Step 5b" sheetId="9" r:id="rId15"/>
+    <sheet name="Visit Customer Survey" sheetId="10" r:id="rId16"/>
+    <sheet name="Complement Document" sheetId="11" r:id="rId17"/>
+    <sheet name="TEMPLATES" sheetId="17" r:id="rId18"/>
+    <sheet name="Transparant Background Color" sheetId="18" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="350">
   <si>
     <r>
       <t>\OLS\Dsf.Olss\</t>
@@ -3119,6 +3120,21 @@
   </si>
   <si>
     <t>®</t>
+  </si>
+  <si>
+    <t>Tax / PPH23 / PPN</t>
+  </si>
+  <si>
+    <t>RE: Service Request S0266337 Down Time OPL System for deployment CR Change VAT Rate (11%)</t>
+  </si>
+  <si>
+    <t>select a.* from OptionItems a where IdOptionItem = 47;</t>
+  </si>
+  <si>
+    <t>select a.* from OptionItemValues a where IdOptionItem = 47;</t>
+  </si>
+  <si>
+    <t>select a.* from Tb_OPL_TaxSetting a;</t>
   </si>
 </sst>
 </file>
@@ -3631,6 +3647,500 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>37762</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>133095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CAD0BC-1D4A-4424-A2A8-21A73962702E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="24955500"/>
+          <a:ext cx="2704762" cy="2038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>75333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039DCF95-69C7-4860-959D-55A65EF86D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="17716500"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>17424</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>37233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9292F172-5D29-4103-BD40-8ADB7EB81523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="17868900"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>75333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7712228-E161-4E8F-9A60-630B03575014}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="27622500"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>17424</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>37233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30DD004D-A130-4683-8C6C-25023DE64576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="27774900"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>17452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E947C7-7AD5-4B47-94E7-213A98D61AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="35242500"/>
+          <a:ext cx="13009524" cy="12780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66190</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>180595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39C95A3-7869-44EC-8669-9814F6CA4D4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="14097000"/>
+          <a:ext cx="3876190" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>8381</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123286</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247520F2-2A6E-44B2-8B06-C348F779063A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="381000" y="952500"/>
+          <a:ext cx="9152381" cy="4314286"/>
+          <a:chOff x="381000" y="952500"/>
+          <a:chExt cx="9152381" cy="4314286"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F2FAC9-2A6A-43B6-AAD6-128AA6F81FA7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="381000" y="952500"/>
+            <a:ext cx="9152381" cy="4314286"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="95000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8E8DFE-D4F5-4D2B-A1E8-21B70649DF34}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="552450" y="3990975"/>
+            <a:ext cx="8715376" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000">
+                <a:alpha val="78000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="67000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -3681,7 +4191,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3788,7 +4298,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3839,7 +4349,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3946,7 +4456,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4308,7 +4818,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5822,7 +6332,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6920,6 +7430,113 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>75405</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3093B3F6-A7A9-4DBE-963D-BDBF9C9DD06C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="952500"/>
+          <a:ext cx="6361905" cy="5419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="88900" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="93000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>46343</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2D11EC-DFCD-400A-8220-E6640C03E500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="2219325"/>
+          <a:ext cx="10257143" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="88900" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="93000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -7016,500 +7633,6 @@
         </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>37762</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>133095</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CAD0BC-1D4A-4424-A2A8-21A73962702E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="24955500"/>
-          <a:ext cx="2704762" cy="2038095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="95000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>55524</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>75333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039DCF95-69C7-4860-959D-55A65EF86D8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="17716500"/>
-          <a:ext cx="13009524" cy="6933333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="95000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>17424</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>37233</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9292F172-5D29-4103-BD40-8ADB7EB81523}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="914400" y="17868900"/>
-          <a:ext cx="13009524" cy="6933333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="95000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>55524</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>75333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7712228-E161-4E8F-9A60-630B03575014}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="27622500"/>
-          <a:ext cx="13009524" cy="6933333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="95000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>17424</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>37233</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30DD004D-A130-4683-8C6C-25023DE64576}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="914400" y="27774900"/>
-          <a:ext cx="13009524" cy="6933333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="95000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>55524</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>17452</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E947C7-7AD5-4B47-94E7-213A98D61AAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="35242500"/>
-          <a:ext cx="13009524" cy="12780952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="95000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>66190</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>180595</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39C95A3-7869-44EC-8669-9814F6CA4D4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="14097000"/>
-          <a:ext cx="3876190" cy="3038095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="95000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>8381</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123286</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247520F2-2A6E-44B2-8B06-C348F779063A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="381000" y="952500"/>
-          <a:ext cx="9152381" cy="4314286"/>
-          <a:chOff x="381000" y="952500"/>
-          <a:chExt cx="9152381" cy="4314286"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F2FAC9-2A6A-43B6-AAD6-128AA6F81FA7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="381000" y="952500"/>
-            <a:ext cx="9152381" cy="4314286"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:effectLst>
-            <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="95000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Rectangle 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8E8DFE-D4F5-4D2B-A1E8-21B70649DF34}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="552450" y="3990975"/>
-            <a:ext cx="8715376" cy="714375"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000">
-                <a:alpha val="78000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="67000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7860,6 +7983,346 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F0519F-BEA1-402D-BC5E-E35B8AD289A1}">
+  <dimension ref="B2:U164"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BD17" sqref="BD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DBD36A-382A-42F3-BE5C-E8B4290F255A}">
   <dimension ref="B2:B4"/>
   <sheetViews>
@@ -7888,7 +8351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9DE37-24AB-4A7F-8EAC-CD047B2490E4}">
   <dimension ref="B2:S11"/>
   <sheetViews>
@@ -7922,7 +8385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9614F39-882D-4078-A1A4-168F0A949DE3}">
   <dimension ref="B2:AW268"/>
   <sheetViews>
@@ -9015,7 +9478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C4C10F-54ED-4AEE-901C-909E3DFD30D9}">
   <dimension ref="B2:C65"/>
   <sheetViews>
@@ -9572,7 +10035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE91207-CC6B-4672-B70D-ED06DFF38CBA}">
   <dimension ref="B2:AA138"/>
   <sheetViews>
@@ -10648,7 +11111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95223E6C-BAB3-4471-8D32-B500B7DB87FB}">
   <dimension ref="B2"/>
   <sheetViews>
@@ -10672,7 +11135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E534C1DC-500B-4833-892E-CA8CE82E36F4}">
   <dimension ref="B2"/>
   <sheetViews>
@@ -10696,7 +11159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52A5C49-EEB6-4520-84B7-219EAA25C2B3}">
   <dimension ref="D4:AT16"/>
   <sheetViews>
@@ -10761,7 +11224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B892934-3CC2-4CD6-BDD9-591600373CFC}">
   <dimension ref="B2:AR41"/>
   <sheetViews>
@@ -11085,9 +11548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57855EB7-7D26-48E1-9541-B0D3A208220E}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11106,6 +11567,119 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B8732A-2DA2-43C9-B30D-2072084D113D}">
+  <dimension ref="B2:BH11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AJ3" sqref="AJ3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="AK9" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="10"/>
+      <c r="BE9" s="10"/>
+      <c r="BF9" s="10"/>
+      <c r="BG9" s="10"/>
+      <c r="BH9" s="10"/>
+    </row>
+    <row r="10" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="AK10" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="10"/>
+      <c r="BE10" s="10"/>
+      <c r="BF10" s="10"/>
+      <c r="BG10" s="10"/>
+      <c r="BH10" s="10"/>
+    </row>
+    <row r="11" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="AK11" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="10"/>
+      <c r="BF11" s="10"/>
+      <c r="BG11" s="10"/>
+      <c r="BH11" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADFCEA2-E089-49B3-99F6-8403DCDBD3DC}">
   <dimension ref="B2:B27"/>
   <sheetViews>
@@ -11137,344 +11711,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F0519F-BEA1-402D-BC5E-E35B8AD289A1}">
-  <dimension ref="B2:U164"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BD17" sqref="BD17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="2.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>